--- a/code/LME/parser_beta/data/nbk_tenge.xlsx
+++ b/code/LME/parser_beta/data/nbk_tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,20 @@
         <v>463.31</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>462.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/code/LME/parser_beta/data/nbk_tenge.xlsx
+++ b/code/LME/parser_beta/data/nbk_tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,6 +594,20 @@
         <v>462.49</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>461.84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
